--- a/XSL-CSS-Review/XSL-CSS-review.xlsx
+++ b/XSL-CSS-Review/XSL-CSS-review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>style-1870-html.css</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -539,51 +542,81 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
@@ -604,10 +637,16 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
